--- a/quangtri-admin/taive/cathi/Exam_30_Results.xlsx
+++ b/quangtri-admin/taive/cathi/Exam_30_Results.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Số thứ tự</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+  <si>
+    <t>STT</t>
   </si>
   <si>
     <t>User ID</t>
@@ -22,6 +22,15 @@
     <t>Họ và tên</t>
   </si>
   <si>
+    <t>Lần thi thứ</t>
+  </si>
+  <si>
+    <t>Làm bài lúc</t>
+  </si>
+  <si>
+    <t>Nộp bài lúc</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
@@ -31,7 +40,58 @@
     <t>Lê Bá Huy</t>
   </si>
   <si>
+    <t>6:59:00 PM 18/08/2024</t>
+  </si>
+  <si>
+    <t>7:00:00 PM 18/08/2024</t>
+  </si>
+  <si>
     <t>Test tối 16-8 lần 1</t>
+  </si>
+  <si>
+    <t>nguyenthithuha</t>
+  </si>
+  <si>
+    <t>7:40:00 AM 21/08/2024</t>
+  </si>
+  <si>
+    <t>10:49:00 PM 21/08/2024</t>
+  </si>
+  <si>
+    <t>10:50:00 PM 21/08/2024</t>
+  </si>
+  <si>
+    <t>10:52:00 PM 21/08/2024</t>
+  </si>
+  <si>
+    <t>11:08:00 PM 21/08/2024</t>
+  </si>
+  <si>
+    <t>10:06:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:08:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:09:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:10:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:11:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:13:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:14:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:48:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>10:49:00 PM 25/08/2024</t>
   </si>
 </sst>
 </file>
@@ -408,16 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="3" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +493,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,13 +511,282 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/quangtri-admin/taive/cathi/Exam_30_Results.xlsx
+++ b/quangtri-admin/taive/cathi/Exam_30_Results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>10:49:00 PM 25/08/2024</t>
+  </si>
+  <si>
+    <t>9:34:00 AM 30/08/2024</t>
+  </si>
+  <si>
+    <t>7:00:00 AM 01/01/1970</t>
+  </si>
+  <si>
+    <t>5:30:00 PM 05/09/2024</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -789,6 +798,58 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
